--- a/src/strategies/B3.WDOL/00.data/hyperparameters/WDO.5Min.100.50.hyperparameters_long.xlsx
+++ b/src/strategies/B3.WDOL/00.data/hyperparameters/WDO.5Min.100.50.hyperparameters_long.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,65 +456,100 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>param_colsample_bytree</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>param_eta</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>param_eval_metric</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>param_gamma</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>param_max_depth</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>param_min_child_weight</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>param_n_estimators</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>param_objective</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>param_scale_pos_weight</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>param_subsample</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>param_tree_method</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>params</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>split0_test_score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>split1_test_score</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>split2_test_score</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>split3_test_score</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>split4_test_score</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>mean_test_score</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>std_test_score</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>rank_test_score</t>
         </is>
@@ -522,63 +557,2216 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>166.6032253503799</v>
+        <v>1366.44000620842</v>
       </c>
       <c r="B2" t="n">
-        <v>0.004497408866882324</v>
+        <v>16.14792315982956</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1729010343551636</v>
+        <v>0.3439111709594727</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001000046730041504</v>
+        <v>0.07087543690325825</v>
       </c>
       <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>200</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.1, 'eval_metric': 'auc', 'gamma': 0.5, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.8465379011324011</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.836805334521612</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.846255861820188</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.8366289542570655</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.8473934069834509</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.8427242917429435</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.004919419367561341</v>
+      </c>
+      <c r="X2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1312.074515581131</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13.11010256936372</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2610947132110596</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06222846510941441</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>200</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.1, 'eval_metric': 'auc', 'gamma': 0.5, 'max_depth': 5, 'min_child_weight': 5, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.8364552167547266</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.8432409588275652</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.8542948663540362</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.8343990416611207</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.8460552819557213</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.8428890731106339</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.007123425624541948</v>
+      </c>
+      <c r="X3" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1301.740915679932</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.980794018804628</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.330359935760498</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09946489170122449</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>200</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.1, 'eval_metric': 'auc', 'gamma': 0.5, 'max_depth': 5, 'min_child_weight': 7, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.8409899491445102</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.8310540313054794</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.851539457211365</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.8454403478415192</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.8488468876170193</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.8435741346239786</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.007185569448808661</v>
+      </c>
+      <c r="X4" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1364.813306999207</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14.26635454850719</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3379197597503662</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02928027636066146</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>200</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.1, 'eval_metric': 'auc', 'gamma': 1, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.8435238822755533</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.8350821538962094</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.8458588848572298</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.8389839833178048</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.8534646612538266</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.8433827131201248</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.006261711278496955</v>
+      </c>
+      <c r="X5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1310.2813352108</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10.76646851116123</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3329432010650635</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04229490435476085</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>200</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.1, 'eval_metric': 'auc', 'gamma': 1, 'max_depth': 5, 'min_child_weight': 5, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.8328108090903303</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.8398556029452331</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.8552501750588833</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.8398518124140379</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.8483863525444785</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.8432309504105927</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.007777285150411549</v>
+      </c>
+      <c r="X6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1297.893674564362</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9.776808759325634</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3853354454040527</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1547844938548763</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>200</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.1, 'eval_metric': 'auc', 'gamma': 1, 'max_depth': 5, 'min_child_weight': 7, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.8420659423826398</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.8333483636415078</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.8443567381755682</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.8417755889791029</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.8267988819379741</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.8376691030233585</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.00659924817590811</v>
+      </c>
+      <c r="X7" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1366.668297815323</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20.36180554927804</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3116141319274902</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03932089899120747</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>200</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.1, 'eval_metric': 'auc', 'gamma': 2, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.830547421506426</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.8394170716008517</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.8457899222667826</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.8402182883002794</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.8459097564222015</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.8403764920193082</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.005612100945276598</v>
+      </c>
+      <c r="X8" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1315.86369767189</v>
+      </c>
+      <c r="B9" t="n">
+        <v>22.46107844077855</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3614648818969727</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1271692549814905</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>200</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.1, 'eval_metric': 'auc', 'gamma': 2, 'max_depth': 5, 'min_child_weight': 5, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.8419430475099201</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.8372049638918949</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.843602570359525</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.8446364080039045</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.8445325879586493</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.8423839155447788</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.002763748896883329</v>
+      </c>
+      <c r="X9" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1293.988656044006</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5.467775790272146</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.242127799987793</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.04800022683804483</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>200</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.1, 'eval_metric': 'auc', 'gamma': 2, 'max_depth': 5, 'min_child_weight': 7, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.8492849109852102</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.8308356497690638</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.8467085393369689</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.8428492834642177</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.850664182084387</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.8440685131279695</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.007131319479876364</v>
+      </c>
+      <c r="X10" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1405.34806675911</v>
+      </c>
+      <c r="B11" t="n">
+        <v>12.91693291313093</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3036194801330566</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.05115955297017145</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>200</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.2, 'eval_metric': 'auc', 'gamma': 0.5, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.8395160948076474</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.8380440087423344</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.8534032154249864</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.8372705088956919</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.8575331647366786</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.8451533985214678</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.008553135746970482</v>
+      </c>
+      <c r="X11" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1309.324892234802</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4.729136123360495</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3592269420623779</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.08297507090581883</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>200</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.2, 'eval_metric': 'auc', 'gamma': 0.5, 'max_depth': 5, 'min_child_weight': 5, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.8535597074571549</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.8376461476436013</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.8507066013113501</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.8384551222325747</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.8530271973024535</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.8466789551894269</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.00711463145413764</v>
+      </c>
+      <c r="X12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1290.815187978744</v>
+      </c>
+      <c r="B13" t="n">
+        <v>15.30539789901223</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.2874969482421875</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.04712439082893332</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>200</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.2, 'eval_metric': 'auc', 'gamma': 0.5, 'max_depth': 5, 'min_child_weight': 7, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.8501089255274754</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.8484255310119464</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.8618396389896803</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.8294786813966901</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.8461591020009762</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.8472023757853538</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.01038663927549635</v>
+      </c>
+      <c r="X13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1399.139940929413</v>
+      </c>
+      <c r="B14" t="n">
+        <v>9.117225616072076</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.353467607498169</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.08013046394917563</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>200</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.2, 'eval_metric': 'auc', 'gamma': 1, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.8314032649365897</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.8271921262404425</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.8623418281098592</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.8320493367052664</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.8512285372021828</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.8408430186388681</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.01358559869627656</v>
+      </c>
+      <c r="X14" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1316.674756908417</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8.003160802478071</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2818545341491699</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.07317122804749623</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>200</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.2, 'eval_metric': 'auc', 'gamma': 1, 'max_depth': 5, 'min_child_weight': 5, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.854972556425545</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.8461426924409927</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.8482336735487795</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.8435050357158702</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.8539748879719596</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.8493657692206295</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.00444292921790413</v>
+      </c>
+      <c r="X15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1295.899110794067</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7.004047814893926</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3041154384613037</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.07839274738245212</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>7</v>
+      </c>
+      <c r="K16" t="n">
+        <v>200</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.2, 'eval_metric': 'auc', 'gamma': 1, 'max_depth': 5, 'min_child_weight': 7, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.8409881808729602</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.8505200486628329</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.8609192536479442</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.8370815031722791</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.857866808642797</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.8494751589997627</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.009253219795843013</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1399.00044593811</v>
+      </c>
+      <c r="B17" t="n">
+        <v>13.28343033889986</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.318897008895874</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1112199210949836</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>200</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.2, 'eval_metric': 'auc', 'gamma': 2, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.8458650738076545</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.8440092728160078</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.8514094892524455</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.8350388215981189</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.8509756422201517</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.8454596599388756</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.005944550181861208</v>
+      </c>
+      <c r="X17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1310.185943174362</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10.19894711169359</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3229110240936279</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.07851517124081024</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>200</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.2, 'eval_metric': 'auc', 'gamma': 2, 'max_depth': 5, 'min_child_weight': 5, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.8487968680374307</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.8366612203902929</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.8511725408647556</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.8310688140556368</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.8478042504103999</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.8431007387517031</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.007822499712166787</v>
+      </c>
+      <c r="X18" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1293.118155002594</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9.018777716590591</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3218809127807617</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1353783349793743</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>7</v>
+      </c>
+      <c r="K19" t="n">
+        <v>200</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.2, 'eval_metric': 'auc', 'gamma': 2, 'max_depth': 5, 'min_child_weight': 7, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.8413303414178708</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.8429730656877515</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.8574251490652917</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.84603576023781</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.8618217312214383</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.8499172095260326</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.008186670618173211</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1401.899573755264</v>
+      </c>
+      <c r="B20" t="n">
+        <v>11.39959014313994</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3096715927124024</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.06637905490122743</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
         <v>0.3</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>auc</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="H20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
         <v>200</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>binary:logitraw</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="M20" t="n">
         <v>16.69255663430421</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="inlineStr">
         <is>
           <t>exact</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>{'eta': 0.3, 'eval_metric': 'auc', 'max_depth': 5, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'tree_method': 'exact'}</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>0.7905399001672379</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.8051617802163398</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.7978508401917888</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.00731094002455096</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.3, 'eval_metric': 'auc', 'gamma': 0.5, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.8319744166472158</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.8363853700285045</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.8559610202219534</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.8451847908070454</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.8618714228670306</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.8462754041143498</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.01131872267049788</v>
+      </c>
+      <c r="X20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1300.498368835449</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12.93327469852615</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3747763633728027</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.09561435120072186</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>200</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.3, 'eval_metric': 'auc', 'gamma': 0.5, 'max_depth': 5, 'min_child_weight': 5, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.8327692547089072</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.8150432165566801</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.8560476655278998</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.8454048538089534</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.8516092107014508</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.8401748402607783</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.01480868433332052</v>
+      </c>
+      <c r="X21" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1267.911659240723</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7.383195395360144</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.2945353984832764</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.03682746950663649</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>7</v>
+      </c>
+      <c r="K22" t="n">
+        <v>200</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.3, 'eval_metric': 'auc', 'gamma': 0.5, 'max_depth': 5, 'min_child_weight': 7, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.8466086319943981</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.8320363061514628</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.8446135796181948</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.8278299835840099</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.855489595811704</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.8413156194319541</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.01007732265009695</v>
+      </c>
+      <c r="X22" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1401.907052516937</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8.36728474495345</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.3365125179290772</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.04072135319882031</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>200</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.3, 'eval_metric': 'auc', 'gamma': 1, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.8388901266789739</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.8299753856600252</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.8581545610796359</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.8372545365810372</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.8456932428235503</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.8419935705646445</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.009501492142814958</v>
+      </c>
+      <c r="X23" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1293.90558590889</v>
+      </c>
+      <c r="B24" t="n">
+        <v>11.79100406466009</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3424277305603027</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.1030409235229786</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>200</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.3, 'eval_metric': 'auc', 'gamma': 1, 'max_depth': 5, 'min_child_weight': 5, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.8398343836866341</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.8372058480276701</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.8662558971856189</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.8487918718665424</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.8454687430675719</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.8475113487668076</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.01022065762270935</v>
+      </c>
+      <c r="X24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1281.925480604172</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12.58690113351052</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.3490692615509033</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.06897397166728442</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>7</v>
+      </c>
+      <c r="K25" t="n">
+        <v>200</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.3, 'eval_metric': 'auc', 'gamma': 1, 'max_depth': 5, 'min_child_weight': 7, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.8332130908679385</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.8217661849894966</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.8519284769523486</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.8406078353076889</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.8470988065131549</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.8389228789261255</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.01063752110635174</v>
+      </c>
+      <c r="X25" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1312.822182226181</v>
+      </c>
+      <c r="B26" t="n">
+        <v>37.70831808477916</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3148912429809571</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.09998296448230568</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>200</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.3, 'eval_metric': 'auc', 'gamma': 2, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.8300390434358224</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.8462823858934369</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.8556126707266182</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.8316189715604063</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.8468281645148409</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.8420762472262251</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.009775029115355773</v>
+      </c>
+      <c r="X26" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1032.220626926422</v>
+      </c>
+      <c r="B27" t="n">
+        <v>226.103895663568</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1380433559417725</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.07609173402314277</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>200</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.3, 'eval_metric': 'auc', 'gamma': 2, 'max_depth': 5, 'min_child_weight': 5, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.8464742433566037</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.8313979601219401</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.8691797341934207</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.8414827632104352</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.8584320511114069</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.8493933503987614</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.01317673511189422</v>
+      </c>
+      <c r="X27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>734.2353168487549</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2.97192074986616</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.08130240440368652</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.02811697979980643</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>7</v>
+      </c>
+      <c r="K28" t="n">
+        <v>200</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.3, 'eval_metric': 'auc', 'gamma': 2, 'max_depth': 5, 'min_child_weight': 7, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.8449199326642193</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.8266200903940416</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.8581377624999116</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.8440960113580904</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.8576849017258974</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.8462917397284322</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.01152223295230461</v>
+      </c>
+      <c r="X28" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/strategies/B3.WDOL/00.data/hyperparameters/WDO.5Min.100.50.hyperparameters_long.xlsx
+++ b/src/strategies/B3.WDOL/00.data/hyperparameters/WDO.5Min.100.50.hyperparameters_long.xlsx
@@ -567,16 +567,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>660.3654621839523</v>
+        <v>940.8088495969772</v>
       </c>
       <c r="B2" t="n">
-        <v>278.1877017603164</v>
+        <v>2.55698502606618</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1042801856994629</v>
+        <v>0.1206927299499512</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06735995752467122</v>
+        <v>0.07431003975304587</v>
       </c>
       <c r="E2" t="n">
         <v>0.3</v>
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>16.69255663430421</v>
+        <v>17.83609958506224</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -610,44 +610,44 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{'eta': 0.3, 'eval_metric': 'auc', 'gamma': 1, 'max_depth': 5, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'tree_method': 'exact'}</t>
+          <t>{'eta': 0.3, 'eval_metric': 'auc', 'gamma': 1, 'max_depth': 5, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 17.83609958506224, 'tree_method': 'exact'}</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.8609608080293675</v>
+        <v>0.8533114717197348</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8574207283864168</v>
+        <v>0.8512983956781535</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8835274895495151</v>
+        <v>0.8839526888761562</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8703609395887706</v>
+        <v>0.8572506548252434</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8739187019472205</v>
+        <v>0.8602843373987068</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8879481684243286</v>
+        <v>0.8621925390848817</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8974826886215261</v>
+        <v>0.852622132737446</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8346984389698756</v>
+        <v>0.8624332125529693</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8614563629044613</v>
+        <v>0.8812642019283916</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8887226455490127</v>
+        <v>0.8530010849761509</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8716496971970494</v>
+        <v>0.8617610719777835</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01777181999468401</v>
+        <v>0.0111226049365144</v>
       </c>
       <c r="Z2" t="n">
         <v>1</v>
